--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3177421.041231633</v>
+        <v>3175533.45971523</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8777039.733369796</v>
+        <v>8777039.733369797</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,16 +665,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>76.80462337977889</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>110.455314574987</v>
       </c>
     </row>
     <row r="3">
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>230.2634979541061</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>307.9222910483171</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>168.8841199149505</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>13.80890171427211</v>
       </c>
       <c r="V7" t="n">
-        <v>162.5776147681365</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>219.1570781143521</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.787510412563668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544548</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>216.699381515088</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>89.60548601218929</v>
+        <v>101.2898147863552</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1819,10 +1819,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>59.77945773664936</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>204.114494376856</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750027</v>
+        <v>96.84207451769305</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985774</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>66.87635383915747</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2533,10 +2533,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>15.38354914932602</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>182.018542680907</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965526</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>36.60092856329125</v>
+        <v>82.16809304408334</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437422</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897903</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357149</v>
+        <v>55.21598883571495</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752357</v>
+        <v>54.76109577523576</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3007,16 +3007,16 @@
         <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1704.527073573122</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="C2" t="n">
-        <v>1704.527073573122</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D2" t="n">
-        <v>1346.261374966372</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>960.4731223681274</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>549.4872175785199</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>131.5234094767068</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1704.527073573122</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1704.527073573122</v>
+        <v>1550.91254930625</v>
       </c>
     </row>
     <row r="3">
@@ -4416,22 +4416,22 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4492,37 +4492,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="W4" t="n">
         <v>53.94298182036445</v>
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.915471247702</v>
+        <v>944.461475247921</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.952954307291</v>
+        <v>944.461475247921</v>
       </c>
       <c r="D5" t="n">
-        <v>764.6872557005402</v>
+        <v>944.461475247921</v>
       </c>
       <c r="E5" t="n">
-        <v>378.8990031022959</v>
+        <v>558.6732226496767</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>551.7277219004733</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4598,19 +4598,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287636</v>
+        <v>1331.061315312043</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.515311311824</v>
+        <v>1331.061315312043</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>274.7355609638946</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>274.7355609638946</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>770.969123535386</v>
+        <v>955.5060781830496</v>
       </c>
       <c r="C8" t="n">
-        <v>402.0066065949742</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D8" t="n">
-        <v>402.0066065949742</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="E8" t="n">
-        <v>402.0066065949742</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,7 +4817,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990286</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2025.937460860856</v>
       </c>
       <c r="V8" t="n">
-        <v>1893.689751284806</v>
+        <v>1694.874573517285</v>
       </c>
       <c r="W8" t="n">
-        <v>1540.921096014692</v>
+        <v>1342.105918247171</v>
       </c>
       <c r="X8" t="n">
-        <v>1167.455337753612</v>
+        <v>1342.105918247171</v>
       </c>
       <c r="Y8" t="n">
-        <v>1157.568963599508</v>
+        <v>1342.105918247171</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,19 +4881,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064343</v>
+        <v>272.831245977019</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5027,25 +5027,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5054,37 +5054,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>462.7283310300503</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L12" t="n">
-        <v>709.4934589365143</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216476</v>
+        <v>841.8631140141295</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880509</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>415.8104215925218</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>415.8104215925218</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>415.8104215925218</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8104215925218</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925218</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247862</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>675.0071030383444</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655736</v>
+        <v>420.3226148324576</v>
       </c>
       <c r="W13" t="n">
-        <v>864.5925516340693</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X13" t="n">
-        <v>636.603000736052</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>415.8104215925218</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,28 +5294,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507006</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N15" t="n">
-        <v>1800.678268171039</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O15" t="n">
-        <v>2080.218333389736</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2413.343925613455</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5458,16 +5458,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V16" t="n">
         <v>614.6238123952638</v>
@@ -5476,10 +5476,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5537,28 +5537,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>414.0663679705859</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5747,13 +5747,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,34 +5768,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1332.091733170013</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2507.25999687553</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387593</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011508</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952639</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,52 +5987,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>333.7051469529983</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C25" t="n">
-        <v>164.7689640250914</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D25" t="n">
-        <v>164.7689640250914</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>164.7689640250914</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>164.7689640250914</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6166,7 +6166,7 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
         <v>1387.841167119728</v>
@@ -6175,22 +6175,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247854</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>964.1357418247854</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V25" t="n">
-        <v>964.1357418247854</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="W25" t="n">
-        <v>964.1357418247854</v>
+        <v>693.9123150842264</v>
       </c>
       <c r="X25" t="n">
-        <v>736.1461909267681</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="Y25" t="n">
-        <v>515.353611783238</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="26">
@@ -6206,43 +6206,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823778</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028581</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6388,16 +6388,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028581</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028581</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,7 +6479,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6540,13 +6540,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
         <v>1198.760773441947</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>604.5641438163784</v>
+        <v>439.5324299542182</v>
       </c>
       <c r="C31" t="n">
-        <v>491.3888261698423</v>
+        <v>439.5324299542182</v>
       </c>
       <c r="D31" t="n">
-        <v>397.0330520388774</v>
+        <v>439.5324299542182</v>
       </c>
       <c r="E31" t="n">
-        <v>360.062417126462</v>
+        <v>356.5343561723158</v>
       </c>
       <c r="F31" t="n">
-        <v>360.062417126462</v>
+        <v>265.4052739557762</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="H31" t="n">
         <v>152.9908175569676</v>
@@ -6619,52 +6619,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962051</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
         <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818937</v>
+        <v>902.6804289818931</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652474</v>
+        <v>730.4517433652464</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652474</v>
+        <v>565.4200295030871</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6701,7 +6701,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,7 +6710,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6780,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256435</v>
@@ -7023,19 +7023,19 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
         <v>398.9545963083207</v>
@@ -7090,16 +7090,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7138,7 +7138,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,7 +7163,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7175,16 +7175,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211721</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>966.6932390011339</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N39" t="n">
-        <v>1771.104817265285</v>
+        <v>1894.594339433115</v>
       </c>
       <c r="O39" t="n">
-        <v>2050.644882483982</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7315,55 +7315,55 @@
         <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982977</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254953</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859417</v>
@@ -7397,10 +7397,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7436,10 +7436,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,58 +7543,58 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O43" t="n">
         <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q43" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7728,25 +7728,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7825,13 +7825,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
@@ -7849,7 +7849,7 @@
         <v>924.261101004521</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,13 +8538,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783517</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,19 +8778,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>274.3657496970634</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>253.7371603504743</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9249,10 +9249,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>73.53204524669997</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165117</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,10 +9261,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,10 +9483,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>124.3400780863229</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9498,10 +9498,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>18.73797368291355</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,22 +9723,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>285.1031356539331</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -9975,7 +9975,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>360.5026862907256</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,16 +10437,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>50.62661940943605</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10671,22 +10671,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>202.5230052237941</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>73.53204524670008</v>
+        <v>148.1350559470645</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>169.2863157167184</v>
       </c>
       <c r="M42" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>196.9175123244017</v>
+        <v>185.2331835502358</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>82.39383318338582</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338582</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>14.47015897523875</v>
       </c>
     </row>
     <row r="20">
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338656</v>
+        <v>124.7054865406962</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>99.61721462422011</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24421,10 +24421,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>271.139449187265</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>70.11910064292098</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965533</v>
       </c>
       <c r="E31" t="n">
-        <v>54.62977745472082</v>
+        <v>9.062612973928807</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437415</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.7105717389791</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>737661.6364456248</v>
+        <v>737661.6364456249</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>737661.6364456248</v>
+        <v>737661.6364456249</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>766878.8300196131</v>
+        <v>766878.830019613</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380334</v>
+      </c>
+      <c r="C2" t="n">
         <v>677359.4601380335</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380334</v>
-      </c>
       <c r="D2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="E2" t="n">
-        <v>645197.9485672192</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="F2" t="n">
-        <v>645197.948567219</v>
+        <v>645197.9485672197</v>
       </c>
       <c r="G2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672197</v>
       </c>
       <c r="H2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672197</v>
       </c>
       <c r="I2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672197</v>
       </c>
       <c r="J2" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="K2" t="n">
-        <v>671256.5266196958</v>
+        <v>671256.5266196954</v>
       </c>
       <c r="L2" t="n">
-        <v>677359.4601380344</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="M2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="N2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="O2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="P2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380336</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284568</v>
+        <v>44162.60530284562</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086683</v>
+        <v>10342.90680086691</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284568</v>
+        <v>44162.60530284564</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.66962143907</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.66962143907</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563564</v>
+        <v>33210.29213563563</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275958</v>
       </c>
       <c r="M4" t="n">
         <v>37464.45686275957</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275958</v>
       </c>
       <c r="O4" t="n">
         <v>37464.45686275957</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275958</v>
       </c>
     </row>
     <row r="5">
@@ -26470,28 +26470,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26500,7 +26500,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-152242.455391143</v>
+        <v>-152242.4553911432</v>
       </c>
       <c r="C6" t="n">
-        <v>437725.4238234013</v>
+        <v>437725.4238234014</v>
       </c>
       <c r="D6" t="n">
-        <v>437725.4238234013</v>
+        <v>437725.4238234012</v>
       </c>
       <c r="E6" t="n">
-        <v>13004.91652016745</v>
+        <v>12907.45739419525</v>
       </c>
       <c r="F6" t="n">
-        <v>538164.9529970633</v>
+        <v>538067.4938710921</v>
       </c>
       <c r="G6" t="n">
-        <v>538164.9529970638</v>
+        <v>538067.4938710919</v>
       </c>
       <c r="H6" t="n">
-        <v>538164.9529970638</v>
+        <v>538067.4938710919</v>
       </c>
       <c r="I6" t="n">
-        <v>538164.9529970638</v>
+        <v>538067.4938710919</v>
       </c>
       <c r="J6" t="n">
-        <v>361741.7338044712</v>
+        <v>361644.2746784987</v>
       </c>
       <c r="K6" t="n">
-        <v>497255.4206509917</v>
+        <v>497236.926913057</v>
       </c>
       <c r="L6" t="n">
-        <v>531836.9906543826</v>
+        <v>531836.9906543818</v>
       </c>
       <c r="M6" t="n">
-        <v>407378.8822214118</v>
+        <v>407378.8822214116</v>
       </c>
       <c r="N6" t="n">
-        <v>542179.897455249</v>
+        <v>542179.8974552487</v>
       </c>
       <c r="O6" t="n">
-        <v>542179.8974552487</v>
+        <v>542179.8974552489</v>
       </c>
       <c r="P6" t="n">
         <v>498017.2921524031</v>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964065</v>
@@ -26735,34 +26735,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108354</v>
+        <v>12.92863350108364</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,16 +27385,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>247.1181493845783</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>275.7826240810666</v>
       </c>
     </row>
     <row r="3">
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>56.2595003824849</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>98.95375469339433</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>244.9000501058445</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,19 +27828,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>272.4729725277056</v>
       </c>
       <c r="V7" t="n">
-        <v>89.56002855569147</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>32.06708939393724</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>376.4504282434899</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831824</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>1.885271837006826</v>
       </c>
     </row>
     <row r="11">
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
     </row>
     <row r="32">
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,43 +31282,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,43 +31519,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>327.2930933377847</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>607.5603230950765</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>460.8305752819989</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>212.353110871397</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,19 +35969,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>383.9564222971663</v>
       </c>
       <c r="N18" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>434.7644551367891</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>106.7510064679877</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,19 +36358,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P23" t="n">
         <v>570.6060255109123</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
@@ -36443,19 +36443,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>492.1965505854578</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>632.1290025749649</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
@@ -36695,7 +36695,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>670.9270633411919</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412262</v>
+        <v>67.71102679412256</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -37005,10 +37005,10 @@
         <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043185</v>
+        <v>94.42895660043179</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37148,7 +37148,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37157,16 +37157,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>383.821192807449</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37391,22 +37391,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>409.6164201553188</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>280.6254601782248</v>
+        <v>355.2284708785892</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37792,7 +37792,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>418.5440206727427</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,10 +38184,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
